--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/20/seed4/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.465999999999999</v>
+        <v>-7.601999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.553999999999999</v>
+        <v>-7.287999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.366</v>
+        <v>-7.961</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>13.036</v>
+        <v>12.711</v>
       </c>
     </row>
     <row r="8">
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>8.248000000000001</v>
+        <v>7.627000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.714</v>
+        <v>12.787</v>
       </c>
     </row>
     <row r="10">
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.422000000000001</v>
+        <v>-8.15</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.422000000000001</v>
+        <v>-8.088999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>7.188</v>
+        <v>6.472</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>5.13</v>
+        <v>5.918</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>5.254</v>
+        <v>6.313000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.958</v>
+        <v>6.661</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.376000000000001</v>
+        <v>-7.935</v>
       </c>
       <c r="E21" t="n">
-        <v>13.056</v>
+        <v>13.025</v>
       </c>
     </row>
     <row r="22">
